--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Il2rg</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.68474914116042</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H2">
-        <v>1.68474914116042</v>
+        <v>0.528307</v>
       </c>
       <c r="I2">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J2">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.24596085381</v>
+        <v>49.22961066666667</v>
       </c>
       <c r="N2">
-        <v>48.24596085381</v>
+        <v>147.688832</v>
       </c>
       <c r="O2">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="P2">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="Q2">
-        <v>81.28234111291565</v>
+        <v>8.669449307491556</v>
       </c>
       <c r="R2">
-        <v>81.28234111291565</v>
+        <v>78.02504376742399</v>
       </c>
       <c r="S2">
-        <v>0.135529470551608</v>
+        <v>0.01226409775114974</v>
       </c>
       <c r="T2">
-        <v>0.135529470551608</v>
+        <v>0.01226409775114974</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.68474914116042</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H3">
-        <v>1.68474914116042</v>
+        <v>0.528307</v>
       </c>
       <c r="I3">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J3">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.76626323450665</v>
+        <v>3.113353333333333</v>
       </c>
       <c r="N3">
-        <v>2.76626323450665</v>
+        <v>9.340059999999999</v>
       </c>
       <c r="O3">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="P3">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="Q3">
-        <v>4.660459608558725</v>
+        <v>0.548268786491111</v>
       </c>
       <c r="R3">
-        <v>4.660459608558725</v>
+        <v>4.934419078419999</v>
       </c>
       <c r="S3">
-        <v>0.00777080992780058</v>
+        <v>0.0007755996664771756</v>
       </c>
       <c r="T3">
-        <v>0.00777080992780058</v>
+        <v>0.0007755996664771758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.68474914116042</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H4">
-        <v>1.68474914116042</v>
+        <v>0.528307</v>
       </c>
       <c r="I4">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J4">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.1411567013993</v>
+        <v>45.92553333333333</v>
       </c>
       <c r="N4">
-        <v>45.1411567013993</v>
+        <v>137.7766</v>
       </c>
       <c r="O4">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="P4">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="Q4">
-        <v>76.0515249836704</v>
+        <v>8.087593579577778</v>
       </c>
       <c r="R4">
-        <v>76.0515249836704</v>
+        <v>72.78834221619999</v>
       </c>
       <c r="S4">
-        <v>0.1268076531083261</v>
+        <v>0.011440984855382</v>
       </c>
       <c r="T4">
-        <v>0.1268076531083261</v>
+        <v>0.01144098485538201</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.68474914116042</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H5">
-        <v>1.68474914116042</v>
+        <v>0.528307</v>
       </c>
       <c r="I5">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J5">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.8700247939244</v>
+        <v>57.27783200000001</v>
       </c>
       <c r="N5">
-        <v>56.8700247939244</v>
+        <v>171.833496</v>
       </c>
       <c r="O5">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346761</v>
       </c>
       <c r="P5">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346762</v>
       </c>
       <c r="Q5">
-        <v>95.81172542933594</v>
+        <v>10.08675986347467</v>
       </c>
       <c r="R5">
-        <v>95.81172542933594</v>
+        <v>90.780838771272</v>
       </c>
       <c r="S5">
-        <v>0.1597556399370317</v>
+        <v>0.01426907345211991</v>
       </c>
       <c r="T5">
-        <v>0.1597556399370317</v>
+        <v>0.01426907345211992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.68474914116042</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H6">
-        <v>1.68474914116042</v>
+        <v>0.528307</v>
       </c>
       <c r="I6">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J6">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.12021163273267</v>
+        <v>2.281801333333334</v>
       </c>
       <c r="N6">
-        <v>2.12021163273267</v>
+        <v>6.845404</v>
       </c>
       <c r="O6">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="P6">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="Q6">
-        <v>3.572024727324698</v>
+        <v>0.4018305390031112</v>
       </c>
       <c r="R6">
-        <v>3.572024727324698</v>
+        <v>3.616474851028</v>
       </c>
       <c r="S6">
-        <v>0.005955963047607682</v>
+        <v>0.0005684431426887541</v>
       </c>
       <c r="T6">
-        <v>0.005955963047607682</v>
+        <v>0.0005684431426887542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.40064170170436</v>
+        <v>1.685940666666667</v>
       </c>
       <c r="H7">
-        <v>1.40064170170436</v>
+        <v>5.057822</v>
       </c>
       <c r="I7">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="J7">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.24596085381</v>
+        <v>49.22961066666667</v>
       </c>
       <c r="N7">
-        <v>48.24596085381</v>
+        <v>147.688832</v>
       </c>
       <c r="O7">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="P7">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="Q7">
-        <v>67.57530471064237</v>
+        <v>82.99820262710044</v>
       </c>
       <c r="R7">
-        <v>67.57530471064237</v>
+        <v>746.983823643904</v>
       </c>
       <c r="S7">
-        <v>0.1126744769454196</v>
+        <v>0.1174120793703579</v>
       </c>
       <c r="T7">
-        <v>0.1126744769454196</v>
+        <v>0.1174120793703579</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.40064170170436</v>
+        <v>1.685940666666667</v>
       </c>
       <c r="H8">
-        <v>1.40064170170436</v>
+        <v>5.057822</v>
       </c>
       <c r="I8">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="J8">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.76626323450665</v>
+        <v>3.113353333333333</v>
       </c>
       <c r="N8">
-        <v>2.76626323450665</v>
+        <v>9.340059999999999</v>
       </c>
       <c r="O8">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="P8">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="Q8">
-        <v>3.874543644141601</v>
+        <v>5.248928994368888</v>
       </c>
       <c r="R8">
-        <v>3.874543644141601</v>
+        <v>47.24036094931999</v>
       </c>
       <c r="S8">
-        <v>0.006460380465544553</v>
+        <v>0.007425313418714726</v>
       </c>
       <c r="T8">
-        <v>0.006460380465544553</v>
+        <v>0.007425313418714729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.40064170170436</v>
+        <v>1.685940666666667</v>
       </c>
       <c r="H9">
-        <v>1.40064170170436</v>
+        <v>5.057822</v>
       </c>
       <c r="I9">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="J9">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.1411567013993</v>
+        <v>45.92553333333333</v>
       </c>
       <c r="N9">
-        <v>45.1411567013993</v>
+        <v>137.7766</v>
       </c>
       <c r="O9">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="P9">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="Q9">
-        <v>63.22658653915109</v>
+        <v>77.42772428502222</v>
       </c>
       <c r="R9">
-        <v>63.22658653915109</v>
+        <v>696.8495185652</v>
       </c>
       <c r="S9">
-        <v>0.1054234619858281</v>
+        <v>0.1095318913117144</v>
       </c>
       <c r="T9">
-        <v>0.1054234619858281</v>
+        <v>0.1095318913117145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.40064170170436</v>
+        <v>1.685940666666667</v>
       </c>
       <c r="H10">
-        <v>1.40064170170436</v>
+        <v>5.057822</v>
       </c>
       <c r="I10">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="J10">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.8700247939244</v>
+        <v>57.27783200000001</v>
       </c>
       <c r="N10">
-        <v>56.8700247939244</v>
+        <v>171.833496</v>
       </c>
       <c r="O10">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346761</v>
       </c>
       <c r="P10">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346762</v>
       </c>
       <c r="Q10">
-        <v>79.65452830333142</v>
+        <v>96.56702626730134</v>
       </c>
       <c r="R10">
-        <v>79.65452830333142</v>
+        <v>869.1032364057121</v>
       </c>
       <c r="S10">
-        <v>0.1328152695920958</v>
+        <v>0.1366069986310006</v>
       </c>
       <c r="T10">
-        <v>0.1328152695920958</v>
+        <v>0.1366069986310006</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.40064170170436</v>
+        <v>1.685940666666667</v>
       </c>
       <c r="H11">
-        <v>1.40064170170436</v>
+        <v>5.057822</v>
       </c>
       <c r="I11">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="J11">
-        <v>0.362325169028005</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.12021163273267</v>
+        <v>2.281801333333334</v>
       </c>
       <c r="N11">
-        <v>2.12021163273267</v>
+        <v>6.845404</v>
       </c>
       <c r="O11">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="P11">
-        <v>0.01366612220840314</v>
+        <v>0.01445750718642485</v>
       </c>
       <c r="Q11">
-        <v>2.969656829244066</v>
+        <v>3.846981661120889</v>
       </c>
       <c r="R11">
-        <v>2.969656829244066</v>
+        <v>34.622834950088</v>
       </c>
       <c r="S11">
-        <v>0.004951580039117039</v>
+        <v>0.005442071054974323</v>
       </c>
       <c r="T11">
-        <v>0.004951580039117039</v>
+        <v>0.005442071054974324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.780312733460885</v>
+        <v>1.400952</v>
       </c>
       <c r="H12">
-        <v>0.780312733460885</v>
+        <v>4.202856</v>
       </c>
       <c r="I12">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="J12">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.24596085381</v>
+        <v>49.22961066666667</v>
       </c>
       <c r="N12">
-        <v>48.24596085381</v>
+        <v>147.688832</v>
       </c>
       <c r="O12">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="P12">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="Q12">
-        <v>37.64693759228334</v>
+        <v>68.968321522688</v>
       </c>
       <c r="R12">
-        <v>37.64693759228334</v>
+        <v>620.7148937041919</v>
       </c>
       <c r="S12">
-        <v>0.06277217720247043</v>
+        <v>0.09756493254491456</v>
       </c>
       <c r="T12">
-        <v>0.06277217720247043</v>
+        <v>0.09756493254491458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.780312733460885</v>
+        <v>1.400952</v>
       </c>
       <c r="H13">
-        <v>0.780312733460885</v>
+        <v>4.202856</v>
       </c>
       <c r="I13">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="J13">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.76626323450665</v>
+        <v>3.113353333333333</v>
       </c>
       <c r="N13">
-        <v>2.76626323450665</v>
+        <v>9.340059999999999</v>
       </c>
       <c r="O13">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="P13">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="Q13">
-        <v>2.158550425990233</v>
+        <v>4.361658579039999</v>
       </c>
       <c r="R13">
-        <v>2.158550425990233</v>
+        <v>39.25492721135999</v>
       </c>
       <c r="S13">
-        <v>0.003599148257639431</v>
+        <v>0.006170150522047969</v>
       </c>
       <c r="T13">
-        <v>0.003599148257639431</v>
+        <v>0.00617015052204797</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.780312733460885</v>
+        <v>1.400952</v>
       </c>
       <c r="H14">
-        <v>0.780312733460885</v>
+        <v>4.202856</v>
       </c>
       <c r="I14">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="J14">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.1411567013993</v>
+        <v>45.92553333333333</v>
       </c>
       <c r="N14">
-        <v>45.1411567013993</v>
+        <v>137.7766</v>
       </c>
       <c r="O14">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="P14">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="Q14">
-        <v>35.22421937725503</v>
+        <v>64.33946777440001</v>
       </c>
       <c r="R14">
-        <v>35.22421937725503</v>
+        <v>579.0552099696</v>
       </c>
       <c r="S14">
-        <v>0.05873255786470571</v>
+        <v>0.09101679865182818</v>
       </c>
       <c r="T14">
-        <v>0.05873255786470571</v>
+        <v>0.0910167986518282</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.780312733460885</v>
+        <v>1.400952</v>
       </c>
       <c r="H15">
-        <v>0.780312733460885</v>
+        <v>4.202856</v>
       </c>
       <c r="I15">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="J15">
-        <v>0.201855294399621</v>
+        <v>0.3127892078295392</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.8700247939244</v>
+        <v>57.27783200000001</v>
       </c>
       <c r="N15">
-        <v>56.8700247939244</v>
+        <v>171.833496</v>
       </c>
       <c r="O15">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346761</v>
       </c>
       <c r="P15">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346762</v>
       </c>
       <c r="Q15">
-        <v>44.37640449893546</v>
+        <v>80.24349329606402</v>
       </c>
       <c r="R15">
-        <v>44.37640449893546</v>
+        <v>722.191439664576</v>
       </c>
       <c r="S15">
-        <v>0.07399283195312706</v>
+        <v>0.1135151738907167</v>
       </c>
       <c r="T15">
-        <v>0.07399283195312706</v>
+        <v>0.1135151738907168</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.400952</v>
+      </c>
+      <c r="H16">
+        <v>4.202856</v>
+      </c>
+      <c r="I16">
+        <v>0.3127892078295392</v>
+      </c>
+      <c r="J16">
+        <v>0.3127892078295392</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.281801333333334</v>
+      </c>
+      <c r="N16">
+        <v>6.845404</v>
+      </c>
+      <c r="O16">
+        <v>0.01445750718642485</v>
+      </c>
+      <c r="P16">
+        <v>0.01445750718642485</v>
+      </c>
+      <c r="Q16">
+        <v>3.196694141536</v>
+      </c>
+      <c r="R16">
+        <v>28.770247273824</v>
+      </c>
+      <c r="S16">
+        <v>0.004522152220031698</v>
+      </c>
+      <c r="T16">
+        <v>0.004522152220031699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.15349</v>
+      </c>
+      <c r="I17">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J17">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>49.22961066666667</v>
+      </c>
+      <c r="N17">
+        <v>147.688832</v>
+      </c>
+      <c r="O17">
+        <v>0.31191911390397</v>
+      </c>
+      <c r="P17">
+        <v>0.31191911390397</v>
+      </c>
+      <c r="Q17">
+        <v>18.92862120263111</v>
+      </c>
+      <c r="R17">
+        <v>170.35759082368</v>
+      </c>
+      <c r="S17">
+        <v>0.02677707112526185</v>
+      </c>
+      <c r="T17">
+        <v>0.02677707112526185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.15349</v>
+      </c>
+      <c r="I18">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J18">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.113353333333333</v>
+      </c>
+      <c r="N18">
+        <v>9.340059999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.01972622573797533</v>
+      </c>
+      <c r="P18">
+        <v>0.01972622573797533</v>
+      </c>
+      <c r="Q18">
+        <v>1.197073978822222</v>
+      </c>
+      <c r="R18">
+        <v>10.7736658094</v>
+      </c>
+      <c r="S18">
+        <v>0.001693421550887566</v>
+      </c>
+      <c r="T18">
+        <v>0.001693421550887566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.15349</v>
+      </c>
+      <c r="I19">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J19">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>45.92553333333333</v>
+      </c>
+      <c r="N19">
+        <v>137.7766</v>
+      </c>
+      <c r="O19">
+        <v>0.2909844597369537</v>
+      </c>
+      <c r="P19">
+        <v>0.2909844597369537</v>
+      </c>
+      <c r="Q19">
+        <v>17.65821448155555</v>
+      </c>
+      <c r="R19">
+        <v>158.923930334</v>
+      </c>
+      <c r="S19">
+        <v>0.02497991058387375</v>
+      </c>
+      <c r="T19">
+        <v>0.02497991058387375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.15349</v>
+      </c>
+      <c r="I20">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J20">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>57.27783200000001</v>
+      </c>
+      <c r="N20">
+        <v>171.833496</v>
+      </c>
+      <c r="O20">
+        <v>0.3629126934346761</v>
+      </c>
+      <c r="P20">
+        <v>0.3629126934346762</v>
+      </c>
+      <c r="Q20">
+        <v>22.02313547789334</v>
+      </c>
+      <c r="R20">
+        <v>198.20821930104</v>
+      </c>
+      <c r="S20">
+        <v>0.03115467623235316</v>
+      </c>
+      <c r="T20">
+        <v>0.03115467623235316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.15349</v>
+      </c>
+      <c r="I21">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J21">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.281801333333334</v>
+      </c>
+      <c r="N21">
+        <v>6.845404</v>
+      </c>
+      <c r="O21">
+        <v>0.01445750718642485</v>
+      </c>
+      <c r="P21">
+        <v>0.01445750718642485</v>
+      </c>
+      <c r="Q21">
+        <v>0.8773450066622223</v>
+      </c>
+      <c r="R21">
+        <v>7.89610505996</v>
+      </c>
+      <c r="S21">
+        <v>0.001241122076103574</v>
+      </c>
+      <c r="T21">
+        <v>0.001241122076103574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H22">
+        <v>2.494229</v>
+      </c>
+      <c r="I22">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J22">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>49.22961066666667</v>
+      </c>
+      <c r="N22">
+        <v>147.688832</v>
+      </c>
+      <c r="O22">
+        <v>0.31191911390397</v>
+      </c>
+      <c r="P22">
+        <v>0.31191911390397</v>
+      </c>
+      <c r="Q22">
+        <v>40.92997419450311</v>
+      </c>
+      <c r="R22">
+        <v>368.369767750528</v>
+      </c>
+      <c r="S22">
+        <v>0.05790093311228595</v>
+      </c>
+      <c r="T22">
+        <v>0.05790093311228596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H23">
+        <v>2.494229</v>
+      </c>
+      <c r="I23">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J23">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.113353333333333</v>
+      </c>
+      <c r="N23">
+        <v>9.340059999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.01972622573797533</v>
+      </c>
+      <c r="P23">
+        <v>0.01972622573797533</v>
+      </c>
+      <c r="Q23">
+        <v>2.588472057082222</v>
+      </c>
+      <c r="R23">
+        <v>23.29624851374</v>
+      </c>
+      <c r="S23">
+        <v>0.003661740579847889</v>
+      </c>
+      <c r="T23">
+        <v>0.00366174057984789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.780312733460885</v>
-      </c>
-      <c r="H16">
-        <v>0.780312733460885</v>
-      </c>
-      <c r="I16">
-        <v>0.201855294399621</v>
-      </c>
-      <c r="J16">
-        <v>0.201855294399621</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.12021163273267</v>
-      </c>
-      <c r="N16">
-        <v>2.12021163273267</v>
-      </c>
-      <c r="O16">
-        <v>0.01366612220840314</v>
-      </c>
-      <c r="P16">
-        <v>0.01366612220840314</v>
-      </c>
-      <c r="Q16">
-        <v>1.654428134653196</v>
-      </c>
-      <c r="R16">
-        <v>1.654428134653196</v>
-      </c>
-      <c r="S16">
-        <v>0.002758579121678414</v>
-      </c>
-      <c r="T16">
-        <v>0.002758579121678414</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H24">
+        <v>2.494229</v>
+      </c>
+      <c r="I24">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J24">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>45.92553333333333</v>
+      </c>
+      <c r="N24">
+        <v>137.7766</v>
+      </c>
+      <c r="O24">
+        <v>0.2909844597369537</v>
+      </c>
+      <c r="P24">
+        <v>0.2909844597369537</v>
+      </c>
+      <c r="Q24">
+        <v>38.18293236015555</v>
+      </c>
+      <c r="R24">
+        <v>343.6463912414</v>
+      </c>
+      <c r="S24">
+        <v>0.05401487433415533</v>
+      </c>
+      <c r="T24">
+        <v>0.05401487433415534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H25">
+        <v>2.494229</v>
+      </c>
+      <c r="I25">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J25">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>57.27783200000001</v>
+      </c>
+      <c r="N25">
+        <v>171.833496</v>
+      </c>
+      <c r="O25">
+        <v>0.3629126934346761</v>
+      </c>
+      <c r="P25">
+        <v>0.3629126934346762</v>
+      </c>
+      <c r="Q25">
+        <v>47.62134321050934</v>
+      </c>
+      <c r="R25">
+        <v>428.592088894584</v>
+      </c>
+      <c r="S25">
+        <v>0.06736677122848571</v>
+      </c>
+      <c r="T25">
+        <v>0.06736677122848571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H26">
+        <v>2.494229</v>
+      </c>
+      <c r="I26">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J26">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.281801333333334</v>
+      </c>
+      <c r="N26">
+        <v>6.845404</v>
+      </c>
+      <c r="O26">
+        <v>0.01445750718642485</v>
+      </c>
+      <c r="P26">
+        <v>0.01445750718642485</v>
+      </c>
+      <c r="Q26">
+        <v>1.897111685946222</v>
+      </c>
+      <c r="R26">
+        <v>17.074005173516</v>
+      </c>
+      <c r="S26">
+        <v>0.0026837186926265</v>
+      </c>
+      <c r="T26">
+        <v>0.0026837186926265</v>
       </c>
     </row>
   </sheetData>
